--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965985.3252655425</v>
+        <v>963549.688341836</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>22.86125478512958</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.56921944015868</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>336.5978678801098</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559971</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247737</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2690686825391</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,10 +1111,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.5204656885179</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329842</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>100.577254269455</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238013</v>
+        <v>22.60777203237998</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114094</v>
+        <v>97.97552699114085</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458122</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035167</v>
+        <v>9.753166794035096</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>91.96796146642646</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009548</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146325</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337148</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.617369850356</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.132302579345091</v>
+        <v>86.27179222793362</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>78.14939830225995</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833605</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272888</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336594</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428179</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740325</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012413</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>178.513465597807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179594</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>26.80026191613583</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833988</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890351</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833787</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.825382616190227</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174124</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>28.75188085812027</v>
+        <v>99.97427419833515</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.546535481797</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.584018541385</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>874.3183199346347</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363905</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>77.5441625467829</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3302.513645058537</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3302.513645058537</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3048.983168332374</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2717.920280988803</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.151625718689</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.685867457609</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.546535481797</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686083</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064758</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>560.4166776763452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>560.4166776763452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>410.3000382640095</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>410.3000382640095</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046023</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>970.0546934046023</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>742.0651425065849</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.0651425065849</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.807527238426</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1221.845010298014</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>863.5793116912635</v>
+        <v>1210.83606070513</v>
       </c>
       <c r="E5" t="n">
-        <v>863.5793116912635</v>
+        <v>825.0478081068854</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477181</v>
+        <v>818.102307357682</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.07534488301</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539439</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539439</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278359</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.407367302547</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.017994137768</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>529.017994137768</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>529.017994137768</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553749</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088494</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1925.002559520272</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1703.235944089799</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1414.133077215442</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1159.448589009555</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1159.448589009555</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>931.4590381115379</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.6664589680078</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3142.251815863195</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2811.188928519624</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2811.188928519624</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2141.518204326862</v>
+        <v>1535.258832689359</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.55568738645</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1414.2899887797</v>
+        <v>898.1213569785841</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.501736181456</v>
+        <v>512.3331043803399</v>
       </c>
       <c r="F11" t="n">
-        <v>617.5158313918482</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="G11" t="n">
-        <v>202.9403857214951</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469199</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.5155104420335</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.484858878113</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765428</v>
+        <v>2485.18066176543</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687107</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.04835985629</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882245</v>
+        <v>3835.937563882248</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234595</v>
+        <v>3925.553311234599</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455665</v>
+        <v>3826.588132455669</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971446</v>
+        <v>3622.786021971449</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971446</v>
+        <v>3369.295305604057</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.723134627875</v>
+        <v>3038.232418260487</v>
       </c>
       <c r="W11" t="n">
-        <v>3291.723134627875</v>
+        <v>2685.463762990372</v>
       </c>
       <c r="X11" t="n">
-        <v>2918.257376366796</v>
+        <v>2311.998004729292</v>
       </c>
       <c r="Y11" t="n">
-        <v>2528.118044390984</v>
+        <v>1921.858672753481</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469199</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246919</v>
+        <v>196.8120623792134</v>
       </c>
       <c r="K12" t="n">
-        <v>78.5110662246919</v>
+        <v>477.1621322376515</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843876</v>
+        <v>900.4499396649619</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282775</v>
+        <v>1413.763713908852</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1955.07202125992</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145094</v>
+        <v>1991.670362601621</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.5627329865174</v>
+        <v>203.8650582458586</v>
       </c>
       <c r="C13" t="n">
-        <v>667.6658022123491</v>
+        <v>203.8650582458586</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5491628000134</v>
+        <v>78.51106622469199</v>
       </c>
       <c r="E13" t="n">
-        <v>369.6360692176203</v>
+        <v>78.51106622469199</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469199</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469199</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469199</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469199</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600404</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457712</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.5002252888928</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779223</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542996</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715851</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082523</v>
+        <v>2060.002133082524</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551107</v>
+        <v>2155.909043551108</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551107</v>
+        <v>2076.102739014276</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551107</v>
+        <v>1888.302075370159</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101152</v>
+        <v>1667.488017920205</v>
       </c>
       <c r="U13" t="n">
-        <v>1935.094986101152</v>
+        <v>1378.397311360493</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.410497895265</v>
+        <v>1123.712823154606</v>
       </c>
       <c r="W13" t="n">
-        <v>1390.993327858305</v>
+        <v>834.2956531176458</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.003776960287</v>
+        <v>606.3061022196284</v>
       </c>
       <c r="Y13" t="n">
-        <v>942.2111978167571</v>
+        <v>385.5135230760983</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708299</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>914.0526986331906</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635719</v>
+        <v>494.0589900220721</v>
       </c>
       <c r="C16" t="n">
-        <v>392.982152135665</v>
+        <v>494.0589900220721</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8655127233292</v>
+        <v>494.0589900220721</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239909</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608053</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156343</v>
@@ -5440,7 +5440,7 @@
         <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693318</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.489584893859</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373418</v>
+        <v>896.5000339958419</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938117</v>
+        <v>675.7074548523118</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5589,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630031</v>
+        <v>513.8536007400692</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4664207350962</v>
+        <v>344.9174178121623</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998265</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998265</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806533</v>
+        <v>916.294644713839</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630031</v>
+        <v>695.5020655703089</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,16 +5908,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188002</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908933</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908933</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166296</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327548</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290587</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925701</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490399</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400689</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138388</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703087</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6482,22 +6482,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597622</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597622</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597622</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797742</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6677,13 +6677,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,10 +6786,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856857</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>344.917417812166</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138428</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159254</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,49 +6938,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708862</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429793</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429793</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429793</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429793</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910808</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679634</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642673</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744656</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.395944601126</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400714</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>94.65038286230561</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230561</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703112</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="41">
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7442,10 +7442,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400714</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400714</v>
+        <v>194.8007783998255</v>
       </c>
       <c r="E43" t="n">
-        <v>513.8536007400714</v>
+        <v>194.8007783998255</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703112</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908933</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908934</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-8.866325410708416e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.718751792983116e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.1898324380233</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>188.9914624112222</v>
+        <v>289.5687166806771</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>75.27885963220137</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091725752</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034033</v>
+        <v>89.71507747034029</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146332</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729275</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613729027</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>143.3016600672241</v>
+        <v>60.16217041863555</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440906</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>70.4660747159524</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.4467738245952</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393057</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856418</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194176</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459533</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>73.62417772602097</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393052</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347517</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101239</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>140.446559182492</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459136</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.294712846227</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237518</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>116.669167164811</v>
+        <v>45.44677382459609</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>995619.1712423497</v>
+        <v>995619.1712423498</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>995619.1712423497</v>
+        <v>995619.1712423498</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894836.3341968558</v>
+        <v>894836.3341968561</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973584.7733708468</v>
+        <v>973584.7733708465</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.9670332168</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.9670332168</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.9670332168</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795044</v>
+        <v>405380.8397795045</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="L2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="N2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185167</v>
+        <v>143114.1392185178</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051371</v>
+        <v>166521.3471051356</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557887</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115347</v>
+        <v>37377.32855115373</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848887</v>
+        <v>43782.40655848856</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314466</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231446</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11067.91129448747</v>
@@ -26451,7 +26451,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214718</v>
+        <v>86093.72216214727</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1075459.779886776</v>
+        <v>-1075459.779886774</v>
       </c>
       <c r="C6" t="n">
+        <v>253284.9658408176</v>
+      </c>
+      <c r="D6" t="n">
         <v>253284.9658408177</v>
       </c>
-      <c r="D6" t="n">
-        <v>253284.9658408183</v>
-      </c>
       <c r="E6" t="n">
-        <v>165105.067104353</v>
+        <v>164895.1028605072</v>
       </c>
       <c r="F6" t="n">
-        <v>163649.8991513735</v>
+        <v>163603.9941558093</v>
       </c>
       <c r="G6" t="n">
-        <v>320473.8315182239</v>
+        <v>320439.0935927877</v>
       </c>
       <c r="H6" t="n">
-        <v>331641.0677538028</v>
+        <v>331606.3298283671</v>
       </c>
       <c r="I6" t="n">
-        <v>331641.0677538027</v>
+        <v>331606.3298283671</v>
       </c>
       <c r="J6" t="n">
-        <v>114109.8653565253</v>
+        <v>114075.1274310898</v>
       </c>
       <c r="K6" t="n">
-        <v>331641.0677538029</v>
+        <v>331606.329828367</v>
       </c>
       <c r="L6" t="n">
-        <v>331641.0677538028</v>
+        <v>331606.3298283671</v>
       </c>
       <c r="M6" t="n">
-        <v>294263.7392026494</v>
+        <v>294229.0012772133</v>
       </c>
       <c r="N6" t="n">
-        <v>287858.661195314</v>
+        <v>287823.9232698785</v>
       </c>
       <c r="O6" t="n">
-        <v>328617.769776578</v>
+        <v>328583.0318511422</v>
       </c>
       <c r="P6" t="n">
-        <v>331641.0677538028</v>
+        <v>331606.3298283668</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494558</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086488</v>
+        <v>981.3883278086498</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012585</v>
+        <v>122.3935669012594</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221829</v>
+        <v>145.8707812218277</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063557</v>
+        <v>149.986872406357</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173562</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063557</v>
+        <v>149.9868724063567</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173564</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063557</v>
+        <v>149.986872406357</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173562</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>86.3265070030462</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>115.8518285827726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.27817786160159</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797456318</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>187.4999566489028</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>69.47470627038408</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.350031197944191e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.677937203841219e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.684100509260842e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-8.432048548124567e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>5.741470950262518e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31434,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485652</v>
+        <v>4.873046301485656</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508994</v>
+        <v>49.90608543508998</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380259</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307185</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472606</v>
+        <v>619.8697634726065</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216977</v>
+        <v>769.0032542216983</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857431</v>
+        <v>855.6642913857437</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898392</v>
+        <v>869.5098341898399</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294413</v>
+        <v>821.0534800294419</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615141</v>
+        <v>700.7501494615146</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895595</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356986</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951045</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475347</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188521</v>
+        <v>0.3898437041188524</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969426</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191525</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596483</v>
+        <v>89.7692132059649</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783045</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.023327720256</v>
       </c>
       <c r="L12" t="n">
-        <v>544.217048931082</v>
+        <v>566.1178216256424</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845334</v>
+        <v>660.6327957845339</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147144</v>
+        <v>678.1177801147149</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431813</v>
+        <v>179.5642660017188</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205473</v>
+        <v>497.8817840205477</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071848</v>
+        <v>332.820787407185</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533299</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697593</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780659</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190413</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236088</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737177</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691795</v>
+        <v>65.73539745691799</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836914</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619745</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.980861550918</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263711</v>
+        <v>342.6467528263714</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973099</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050064</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.37234817619</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916782</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570616</v>
+        <v>98.28514988570623</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929614</v>
+        <v>38.09394102929617</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282691</v>
+        <v>9.339672552826917</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.119229862376514</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5050087757899</v>
+        <v>427.3161054158224</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,16 +33263,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,25 +33971,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,16 +34208,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040322</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276254</v>
+        <v>399.7799124276259</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.236839251711</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584704</v>
+        <v>625.318058158471</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932489</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077545</v>
+        <v>590.9552686077551</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062445</v>
+        <v>469.5171537062451</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151099</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156621</v>
+        <v>90.52095692156644</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.181888745897</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512078</v>
+        <v>427.5634418457682</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>518.4987618625155</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313811</v>
+        <v>546.7760680313817</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987369</v>
+        <v>36.96802155727434</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062171</v>
+        <v>363.9073766062175</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211632</v>
+        <v>192.8390133211635</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936593</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670185</v>
+        <v>61.18259316701861</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360916</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112341</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882117</v>
+        <v>382.230629788212</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765385</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190458</v>
+        <v>333.549444619046</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410835</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998369</v>
+        <v>96.87566713998383</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>446.1632966924565</v>
+        <v>295.9743933324891</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,16 +37856,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998964</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
